--- a/output/fit_clients/fit_round_340.xlsx
+++ b/output/fit_clients/fit_round_340.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2151528201.065593</v>
+        <v>1565244708.504027</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08072824354999907</v>
+        <v>0.08226329751368597</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0331836258804926</v>
+        <v>0.04025098258816803</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1075764116.53935</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2493054327.609414</v>
+        <v>2416097403.282485</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1295739046110185</v>
+        <v>0.1303644304540626</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03644557558289925</v>
+        <v>0.04488437851128885</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1246527280.227175</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4293966380.619262</v>
+        <v>4526201021.447465</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1588375457723369</v>
+        <v>0.1246947305402476</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02498385194386536</v>
+        <v>0.03331847649811843</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>123</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2146983225.322595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3003291520.665277</v>
+        <v>2895647594.187874</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09387178671571013</v>
+        <v>0.07847651878556836</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03407587203568634</v>
+        <v>0.04321247140245127</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>127</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1501645829.995685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2462833050.591574</v>
+        <v>2073413424.43451</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1262342353630471</v>
+        <v>0.1307017009626954</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04811977462377263</v>
+        <v>0.05504820109476056</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>64</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1231416504.808226</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2265264076.9254</v>
+        <v>2044056712.942107</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09663520128080133</v>
+        <v>0.08785272713894139</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03694074609936785</v>
+        <v>0.04944675497016941</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>104</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1132632074.075989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3838898269.668396</v>
+        <v>3911180717.261262</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2156930651705372</v>
+        <v>0.1709560734855517</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02235707205407079</v>
+        <v>0.02861464549922422</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>108</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1919449278.116354</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2314368995.059382</v>
+        <v>1403907730.901503</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1740290051133955</v>
+        <v>0.125134791227221</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02853416768548562</v>
+        <v>0.03242718811730488</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1157184480.534168</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5304031892.597641</v>
+        <v>4586039719.495639</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1928215182412209</v>
+        <v>0.1705398447283999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04424515031318559</v>
+        <v>0.04417226875814552</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>143</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2652016069.190735</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2847372506.443392</v>
+        <v>3717194743.458484</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1322427667174437</v>
+        <v>0.1262493712008737</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04369891629885254</v>
+        <v>0.04824581063766177</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>141</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1423686185.574778</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3096765537.234441</v>
+        <v>2114385494.842691</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1868288065893113</v>
+        <v>0.137959522008406</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03608308001114982</v>
+        <v>0.04600681657885981</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>116</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1548382795.507299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3937285307.876463</v>
+        <v>4834934810.098846</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06431207874526872</v>
+        <v>0.06539849001884654</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02244961584147632</v>
+        <v>0.02586045084031705</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>114</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1968642712.058503</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3720928230.408467</v>
+        <v>2743457742.60072</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1732998623860088</v>
+        <v>0.1438043978973856</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04125296953251369</v>
+        <v>0.02799622988655739</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>111</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1860464097.439894</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1651997936.85747</v>
+        <v>1509408230.379166</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06858304861326033</v>
+        <v>0.07313070574249088</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04026655748349475</v>
+        <v>0.04404327600553924</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>825999088.3963497</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2741417126.328405</v>
+        <v>2883200958.170869</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08793122430263349</v>
+        <v>0.07984899129606333</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03536400324828698</v>
+        <v>0.03312610321127057</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>67</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1370708572.416081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4750183660.017889</v>
+        <v>5197012676.273026</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1620648916091401</v>
+        <v>0.1227381736467899</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03720769224177971</v>
+        <v>0.03884996797713938</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>99</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2375091827.526792</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3967799368.683969</v>
+        <v>2414639769.359248</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1352204832701471</v>
+        <v>0.1418728310548309</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02929643935295519</v>
+        <v>0.03413606456213543</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>111</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1983899644.496364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>858907548.2706168</v>
+        <v>1327656668.526701</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1897090207315786</v>
+        <v>0.1392471602340649</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0254232353124655</v>
+        <v>0.01956211012302659</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>429453769.0322224</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2514021768.266782</v>
+        <v>2160967696.664001</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09992268359337343</v>
+        <v>0.1144990204905052</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02866991622885101</v>
+        <v>0.02135459464006689</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>45</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1257010855.740733</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1832710217.322917</v>
+        <v>1773431642.07643</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06236989638150516</v>
+        <v>0.08345635392174332</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03540025504098791</v>
+        <v>0.04599489681741394</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>916355160.5967637</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3595171470.088805</v>
+        <v>3084448088.362634</v>
       </c>
       <c r="F22" t="n">
-        <v>0.088729007992149</v>
+        <v>0.09441034506750043</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05377422476891426</v>
+        <v>0.04970339209242373</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>94</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1797585760.940784</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1386757579.067157</v>
+        <v>1103062448.370045</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1602684002753923</v>
+        <v>0.1526118061280548</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04102104163170371</v>
+        <v>0.04635967128599734</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>693378794.5507075</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3454944448.150128</v>
+        <v>3056657503.040529</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1061319917665844</v>
+        <v>0.09592961592162839</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03159188366713315</v>
+        <v>0.03096221312735208</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>99</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1727472228.732706</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1253670006.145142</v>
+        <v>1365829921.861182</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1199276910778026</v>
+        <v>0.1215755644881931</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03048232015160352</v>
+        <v>0.02216889244664194</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>626835008.696807</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1371589943.83024</v>
+        <v>1189635781.009877</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09903001500129296</v>
+        <v>0.1074930880429033</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0249134126560282</v>
+        <v>0.03555086608410889</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>685795034.9364796</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3527001294.61599</v>
+        <v>3866812358.126655</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1184248475965626</v>
+        <v>0.1067432963092126</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01846754757306749</v>
+        <v>0.02026937023556214</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1763500680.98764</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2968358485.216287</v>
+        <v>2544454724.575558</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1423047969383013</v>
+        <v>0.1054189112068241</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04643766020970875</v>
+        <v>0.04477794024095156</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>110</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1484179251.095791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3841518484.166037</v>
+        <v>3736836013.962922</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1442024664018096</v>
+        <v>0.1314629229732273</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03692467602032673</v>
+        <v>0.03952796817996165</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>150</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1920759269.923292</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2065232068.131741</v>
+        <v>2259964219.841179</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1059629552233053</v>
+        <v>0.08518963281741972</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02431953651505535</v>
+        <v>0.02513066621410731</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1032616078.994344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>926336775.7126096</v>
+        <v>932780529.9840134</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08741465647214693</v>
+        <v>0.07279703160717001</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03312304677923178</v>
+        <v>0.03639434064334274</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>463168403.7413079</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1619625274.684994</v>
+        <v>1797655403.242341</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0726549536334449</v>
+        <v>0.107115293875804</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03394145352277479</v>
+        <v>0.03513217214926596</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>809812730.4891527</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2258597315.337408</v>
+        <v>2614089958.267581</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1475016134086228</v>
+        <v>0.1727440955346722</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03739632380508633</v>
+        <v>0.04693722168269009</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>101</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1129298716.427861</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1145559245.797649</v>
+        <v>1085798583.330004</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1145162269112494</v>
+        <v>0.1136731133045098</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02263720197963257</v>
+        <v>0.01958773019560976</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>572779636.8898813</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>835846763.1042179</v>
+        <v>1236514994.914471</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1147211515840041</v>
+        <v>0.1014243035409135</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03823362032282464</v>
+        <v>0.04461811240277443</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>417923436.1236532</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2894925450.940615</v>
+        <v>2498562553.62113</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1123910990568765</v>
+        <v>0.1278835424382675</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02777010917697535</v>
+        <v>0.02815487132529629</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>85</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1447462715.812754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2230210783.182585</v>
+        <v>2504131529.890361</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1049836835654507</v>
+        <v>0.08191668807562986</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03209446285903472</v>
+        <v>0.03070832475272186</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>91</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1115105450.554186</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1400956739.009778</v>
+        <v>1471304205.210818</v>
       </c>
       <c r="F38" t="n">
-        <v>0.114304850782244</v>
+        <v>0.1159673071171239</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02816124184514128</v>
+        <v>0.03184124067957633</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>700478432.7629646</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2084652386.007194</v>
+        <v>1355793877.624202</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1855110227188604</v>
+        <v>0.1600257150281509</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03234869151612141</v>
+        <v>0.02339168029448858</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1042326174.683478</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1629100356.417873</v>
+        <v>1470485527.514654</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1362189000478266</v>
+        <v>0.1345146484925567</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05028880589836254</v>
+        <v>0.04399007855486717</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>814550112.1012783</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2475405744.372682</v>
+        <v>2694993874.208713</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1233654712590011</v>
+        <v>0.1167022340505111</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02937142421423665</v>
+        <v>0.03067425610625734</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>86</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1237702899.846621</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4007998771.836336</v>
+        <v>3946686568.766759</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1176967359756706</v>
+        <v>0.107668358852153</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03396906746811474</v>
+        <v>0.03705570636277361</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>115</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2003999415.742718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3036326617.766495</v>
+        <v>2694062113.910239</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1414261466911822</v>
+        <v>0.1897059407105597</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02271625740453254</v>
+        <v>0.01908215998810734</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>122</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1518163303.631935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1486640006.30817</v>
+        <v>1786453453.419881</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08395062967664041</v>
+        <v>0.07332193098132106</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03270212422822506</v>
+        <v>0.03163387972035043</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>743320007.0694846</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2043533679.987393</v>
+        <v>2465228151.326311</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1927327949755968</v>
+        <v>0.148281214862653</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05040586747119948</v>
+        <v>0.04532546857957997</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1021766835.290527</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4062120870.726668</v>
+        <v>5169731370.394045</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1143858074683545</v>
+        <v>0.1777659954865365</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04628157829665771</v>
+        <v>0.04987520759075875</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>121</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2031060408.470507</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4307520569.459</v>
+        <v>3899046407.254647</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1358953797103354</v>
+        <v>0.1345843306359021</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03765199305607354</v>
+        <v>0.03821271907492458</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>91</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2153760301.285535</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3283762644.021842</v>
+        <v>3202954818.39926</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1047889377825844</v>
+        <v>0.08665640220078812</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03733894020470031</v>
+        <v>0.03636624181819809</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>113</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1641881398.002866</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1576905653.200247</v>
+        <v>1718690297.422693</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1715903866845405</v>
+        <v>0.1881060704343626</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03397960331911943</v>
+        <v>0.03521710569195376</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>788452846.6773885</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3924127509.783008</v>
+        <v>2947699344.415468</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1515846125627325</v>
+        <v>0.1331677401284537</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05124662110142319</v>
+        <v>0.03853925830491461</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>116</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1962063748.984233</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1451162873.851872</v>
+        <v>1337054610.25248</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1660038208103914</v>
+        <v>0.1228010269625374</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05381992077750067</v>
+        <v>0.05094190108157053</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>725581447.7860533</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4312785383.786521</v>
+        <v>4119505302.287456</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1294770815010551</v>
+        <v>0.09039050846233088</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04412250227118519</v>
+        <v>0.05402181601411785</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>140</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2156392729.969045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2518224220.012817</v>
+        <v>3580377435.14072</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1415322114469965</v>
+        <v>0.1252039097976259</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02993972853996808</v>
+        <v>0.03309698402750859</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>97</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1259112175.742389</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4086112253.080084</v>
+        <v>4401346035.248734</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1422699722591973</v>
+        <v>0.1671497590326933</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04833900517539594</v>
+        <v>0.04353500935753183</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>111</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2043056197.395928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3135225157.3739</v>
+        <v>3922906329.449066</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2221540598708144</v>
+        <v>0.139544430530313</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02429895962447077</v>
+        <v>0.02201977121248716</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1567612515.464951</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1764480416.536138</v>
+        <v>1181225643.342162</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1467998864090895</v>
+        <v>0.1415998589601216</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03622095538144374</v>
+        <v>0.04467325005307895</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>882240211.3621606</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3922329622.148861</v>
+        <v>2965723255.688934</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1170708248755903</v>
+        <v>0.1743343443568021</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02157955759262795</v>
+        <v>0.02252592822320154</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>108</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1961164892.928418</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1497214472.137942</v>
+        <v>1912633028.585426</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1787348779292096</v>
+        <v>0.1902186904171262</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03934070081179567</v>
+        <v>0.02504638046153728</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>748607267.4578527</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3727459343.954981</v>
+        <v>3711481013.21753</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08062899361074093</v>
+        <v>0.09317995567521155</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04798766255812778</v>
+        <v>0.03169511124674531</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>93</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1863729661.078477</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2837931749.699332</v>
+        <v>2375860429.736403</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1427768843141133</v>
+        <v>0.1501677611612765</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0256856108639493</v>
+        <v>0.03082082897910486</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>105</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1418965928.207189</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2643277484.940708</v>
+        <v>3169483793.835397</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1534126821775424</v>
+        <v>0.1086193069640647</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03013294980929243</v>
+        <v>0.02629940848876721</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>115</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1321638756.579458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1518574071.675219</v>
+        <v>1752044865.261132</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1594047380809296</v>
+        <v>0.148072437594361</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03945531498986991</v>
+        <v>0.03476742846980301</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>759287021.6998458</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3531314199.115366</v>
+        <v>4820821868.433852</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09152996288382338</v>
+        <v>0.09590745940280503</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04504156782569357</v>
+        <v>0.031951809046405</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>98</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1765657182.885272</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4291153509.61117</v>
+        <v>3691873481.236451</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1348515114827163</v>
+        <v>0.1825971435539442</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03163437177232351</v>
+        <v>0.03318197391695194</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>106</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2145576811.150934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4963355203.628451</v>
+        <v>5583379413.756564</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1680952030585572</v>
+        <v>0.1686829869081917</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02321971324392113</v>
+        <v>0.0303612251216888</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>122</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2481677562.917316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4955421911.278784</v>
+        <v>4953698852.714846</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1251836276966096</v>
+        <v>0.1557068465590888</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03933522885533513</v>
+        <v>0.03496564507117534</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>99</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2477710980.454265</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2970134476.61931</v>
+        <v>3135608072.176836</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09648818921885857</v>
+        <v>0.06900328632044823</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04077448143204112</v>
+        <v>0.032180276148166</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>109</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1485067259.076778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5343104349.655634</v>
+        <v>4415363934.206946</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1075734082247544</v>
+        <v>0.1584984427164594</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04138163908379995</v>
+        <v>0.03467483269737216</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>112</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2671552252.027517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2371100027.049293</v>
+        <v>2166277754.275128</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1323920488698455</v>
+        <v>0.1231889922444612</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05287697057567021</v>
+        <v>0.05138668559726075</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1185550066.448753</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2526490268.184931</v>
+        <v>3159216361.123052</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06898892091169298</v>
+        <v>0.07101393263142777</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04534372843540153</v>
+        <v>0.0380207758441346</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>97</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1263245080.233336</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4549463688.846644</v>
+        <v>3896204085.807507</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1667501150730848</v>
+        <v>0.1134598618374675</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02437572085818802</v>
+        <v>0.02901194619120152</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>124</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2274731916.502946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1862950564.957608</v>
+        <v>1615947734.146505</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08437469614096524</v>
+        <v>0.08473117293346821</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04031198788576001</v>
+        <v>0.04904424497024006</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>931475250.9314601</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3441497089.295971</v>
+        <v>2315368516.804803</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06808517784888919</v>
+        <v>0.09574750849395482</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03953979175891555</v>
+        <v>0.03337605522290785</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>129</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1720748500.203615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3019930751.11055</v>
+        <v>2513354116.365225</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1565760894325646</v>
+        <v>0.1605024012271635</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02970675061734728</v>
+        <v>0.0216168209538324</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>116</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1509965439.204481</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2448486944.767906</v>
+        <v>1977018924.212999</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1048785706959548</v>
+        <v>0.1372486060301572</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03737970016000032</v>
+        <v>0.03187894623442943</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1224243394.593531</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3568004407.598557</v>
+        <v>3975414155.554164</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1033841638338397</v>
+        <v>0.1167821332026254</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02715610616907279</v>
+        <v>0.03402777159041778</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1784002170.434888</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1657747532.569525</v>
+        <v>2066190806.446113</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1657625531213483</v>
+        <v>0.1184897770486153</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02177076169417769</v>
+        <v>0.02991104033833203</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>828873777.3053051</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3885603362.045118</v>
+        <v>3677070142.214124</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09675081023706886</v>
+        <v>0.1200007321974456</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04750972619484291</v>
+        <v>0.05301566565784554</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>118</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1942801654.953585</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1712446426.972673</v>
+        <v>1384734081.454528</v>
       </c>
       <c r="F79" t="n">
-        <v>0.160352894149387</v>
+        <v>0.1579884408581834</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03534022357653372</v>
+        <v>0.0294151824390367</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>856223284.8737863</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5472073339.602357</v>
+        <v>5624409747.819122</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07065957420428395</v>
+        <v>0.1008415978348682</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02338083763658141</v>
+        <v>0.03171405633282817</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>73</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2736036742.491681</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5221187033.750297</v>
+        <v>5084471172.666298</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1254673925732372</v>
+        <v>0.1167076074166626</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03275740199015534</v>
+        <v>0.02276915931508182</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2610593525.430014</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4974367556.191646</v>
+        <v>4406197873.205529</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1635588944095817</v>
+        <v>0.1523201081691117</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02718671884109989</v>
+        <v>0.02273350125592866</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>119</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2487183763.490762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2338610055.673123</v>
+        <v>1645945871.559667</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1406765910374868</v>
+        <v>0.1470841961880919</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03645883331041574</v>
+        <v>0.04304517469197837</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1169305055.327785</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1899427070.582756</v>
+        <v>2546070999.565034</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1211816961143347</v>
+        <v>0.09162128948322742</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0507110171288731</v>
+        <v>0.03231514307327379</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>949713555.0198796</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2765042128.281718</v>
+        <v>2646829899.889742</v>
       </c>
       <c r="F85" t="n">
-        <v>0.12416090870427</v>
+        <v>0.1439258132988409</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03874364738967933</v>
+        <v>0.04963904817418136</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>127</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1382521098.342501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2177901708.276459</v>
+        <v>2155669032.245145</v>
       </c>
       <c r="F86" t="n">
-        <v>0.132079545928057</v>
+        <v>0.1121339572979559</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02584306299350992</v>
+        <v>0.02280512646329664</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1088950906.508942</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1149132110.577959</v>
+        <v>1419350843.002485</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1176745585712893</v>
+        <v>0.131467562651503</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03186463859802406</v>
+        <v>0.02726147375265889</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>574566097.8365306</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3431607950.426119</v>
+        <v>3381464794.538907</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1585570374636552</v>
+        <v>0.1385432468795331</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0394209847330368</v>
+        <v>0.02605665245580043</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>134</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1715804048.322606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2608009012.245305</v>
+        <v>2607000852.49351</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1298265806903315</v>
+        <v>0.1194924992030098</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03373750091024263</v>
+        <v>0.03629310081375062</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>115</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1304004572.96639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1872024933.222297</v>
+        <v>1834466711.534534</v>
       </c>
       <c r="F90" t="n">
-        <v>0.125379289771762</v>
+        <v>0.113455615264341</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05529099237874145</v>
+        <v>0.03673119501556824</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>936012513.4238476</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1724555164.405437</v>
+        <v>1866061265.792788</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1412419862488748</v>
+        <v>0.1703789387486922</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05000993026647724</v>
+        <v>0.05415019999588453</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>862277591.2163665</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2286051346.180441</v>
+        <v>2230755378.686199</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1079987005106742</v>
+        <v>0.1001652221933479</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03087920135605295</v>
+        <v>0.03543662180992105</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>92</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1143025640.876704</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4618262225.094116</v>
+        <v>3293077352.538625</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09952754788077156</v>
+        <v>0.09998552502087331</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04415626999195275</v>
+        <v>0.05045148856934095</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2309131073.192785</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1808965093.085885</v>
+        <v>2195267531.330389</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1566368705359013</v>
+        <v>0.1465799612002629</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03006778860492321</v>
+        <v>0.03631142899586057</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>904482520.0456454</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2545599028.137661</v>
+        <v>2735411771.864349</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09109455828179457</v>
+        <v>0.09357628716027128</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03360884800426768</v>
+        <v>0.0494562147212409</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>84</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1272799546.857809</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1535764978.822167</v>
+        <v>2314692549.119863</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09682255810915834</v>
+        <v>0.1001589528278302</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03050104707768269</v>
+        <v>0.04066069374902506</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>767882525.9646664</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4887695680.464753</v>
+        <v>3790746366.000819</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1198431206181418</v>
+        <v>0.1481581107212599</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02853887528072464</v>
+        <v>0.01770444481215543</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>109</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2443847968.016541</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2443165515.809103</v>
+        <v>3607367853.996624</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1073626162079239</v>
+        <v>0.1188254026579105</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02698203836787203</v>
+        <v>0.03125219556043846</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>89</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1221582704.849963</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2607575978.096702</v>
+        <v>3062182776.333132</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1151865521335907</v>
+        <v>0.1051087917716351</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02389944705785538</v>
+        <v>0.02604171782929969</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>108</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1303787946.581596</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3112790460.198255</v>
+        <v>4348538362.109551</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1298871752339869</v>
+        <v>0.1576406481249287</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02731053087081984</v>
+        <v>0.02505431115769143</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>105</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1556395229.93598</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2360746959.307263</v>
+        <v>3436794097.322606</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1651844295781836</v>
+        <v>0.1606427882353448</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05536056400899514</v>
+        <v>0.05655437957529191</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>137</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1180373484.224584</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_340.xlsx
+++ b/output/fit_clients/fit_round_340.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1565244708.504027</v>
+        <v>1675237120.480696</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08226329751368597</v>
+        <v>0.07248117324280978</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04025098258816803</v>
+        <v>0.03984943278510408</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2416097403.282485</v>
+        <v>2345476826.995721</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1303644304540626</v>
+        <v>0.1515664010610034</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04488437851128885</v>
+        <v>0.03558496914333487</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4526201021.447465</v>
+        <v>3278506867.636659</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1246947305402476</v>
+        <v>0.1289647131917851</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03331847649811843</v>
+        <v>0.03064564471365524</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2895647594.187874</v>
+        <v>3963334736.324166</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07847651878556836</v>
+        <v>0.1000752495389419</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04321247140245127</v>
+        <v>0.03930641553437923</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2073413424.43451</v>
+        <v>2466200874.558227</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1307017009626954</v>
+        <v>0.1124600517565923</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05504820109476056</v>
+        <v>0.04529207019948074</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2044056712.942107</v>
+        <v>1954052672.13478</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08785272713894139</v>
+        <v>0.08065487631004165</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04944675497016941</v>
+        <v>0.04613798201667607</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3911180717.261262</v>
+        <v>3306516701.155874</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1709560734855517</v>
+        <v>0.166000920091264</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02861464549922422</v>
+        <v>0.03016226119211229</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1403907730.901503</v>
+        <v>2258402968.68643</v>
       </c>
       <c r="F9" t="n">
-        <v>0.125134791227221</v>
+        <v>0.1918612699512292</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03242718811730488</v>
+        <v>0.03440643104131123</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4586039719.495639</v>
+        <v>4452152724.078892</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1705398447283999</v>
+        <v>0.1589926721103277</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04417226875814552</v>
+        <v>0.0440578846727151</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3717194743.458484</v>
+        <v>2675243612.454216</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1262493712008737</v>
+        <v>0.1508687269731448</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04824581063766177</v>
+        <v>0.03117144738403625</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2114385494.842691</v>
+        <v>2856489644.98307</v>
       </c>
       <c r="F12" t="n">
-        <v>0.137959522008406</v>
+        <v>0.180714282425424</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04600681657885981</v>
+        <v>0.04526996651997148</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4834934810.098846</v>
+        <v>4273017987.866123</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06539849001884654</v>
+        <v>0.1000813537520003</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02586045084031705</v>
+        <v>0.02487177399885103</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2743457742.60072</v>
+        <v>3000266744.583393</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1438043978973856</v>
+        <v>0.126031506943387</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02799622988655739</v>
+        <v>0.03426867175005503</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1509408230.379166</v>
+        <v>1553141724.787583</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07313070574249088</v>
+        <v>0.08722221977470926</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04404327600553924</v>
+        <v>0.03334260440649477</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2883200958.170869</v>
+        <v>2060454038.948898</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07984899129606333</v>
+        <v>0.08968119977773771</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03312610321127057</v>
+        <v>0.03744153132782924</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5197012676.273026</v>
+        <v>5087977416.302608</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1227381736467899</v>
+        <v>0.131967338728825</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03884996797713938</v>
+        <v>0.04654995101790842</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2414639769.359248</v>
+        <v>2880677206.876569</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1418728310548309</v>
+        <v>0.1498895474333195</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03413606456213543</v>
+        <v>0.02598060829365577</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1327656668.526701</v>
+        <v>1020380825.254042</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1392471602340649</v>
+        <v>0.1258607658550029</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01956211012302659</v>
+        <v>0.01706705537768216</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2160967696.664001</v>
+        <v>1795719284.085522</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1144990204905052</v>
+        <v>0.1465466719804925</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02135459464006689</v>
+        <v>0.03161499315409622</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1773431642.07643</v>
+        <v>2238192921.6039</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08345635392174332</v>
+        <v>0.1023591182080166</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04599489681741394</v>
+        <v>0.04064025738103152</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3084448088.362634</v>
+        <v>3696884661.542823</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09441034506750043</v>
+        <v>0.1409543337199085</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04970339209242373</v>
+        <v>0.05441182738588402</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1103062448.370045</v>
+        <v>1451114605.133306</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1526118061280548</v>
+        <v>0.1244924184250627</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04635967128599734</v>
+        <v>0.04566813295676356</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3056657503.040529</v>
+        <v>2506703882.206118</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09592961592162839</v>
+        <v>0.1475660483075</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03096221312735208</v>
+        <v>0.02872577711310539</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1365829921.861182</v>
+        <v>1197679876.903372</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1215755644881931</v>
+        <v>0.09816168559559511</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02216889244664194</v>
+        <v>0.02616647482780463</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1189635781.009877</v>
+        <v>1344024955.290641</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1074930880429033</v>
+        <v>0.07646666125328264</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03555086608410889</v>
+        <v>0.02421348720390279</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3866812358.126655</v>
+        <v>2865813295.646553</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1067432963092126</v>
+        <v>0.1429099934089899</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02026937023556214</v>
+        <v>0.0197542730878636</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2544454724.575558</v>
+        <v>3547324372.30035</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1054189112068241</v>
+        <v>0.1291664051274858</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04477794024095156</v>
+        <v>0.03995085104774517</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3736836013.962922</v>
+        <v>5360198044.011731</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1314629229732273</v>
+        <v>0.1140190303496575</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03952796817996165</v>
+        <v>0.04216324397877338</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2259964219.841179</v>
+        <v>1465240609.461498</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08518963281741972</v>
+        <v>0.125802879443935</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02513066621410731</v>
+        <v>0.03957191061690971</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>932780529.9840134</v>
+        <v>1181694955.986819</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07279703160717001</v>
+        <v>0.08874167695916522</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03639434064334274</v>
+        <v>0.03926438755753194</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1797655403.242341</v>
+        <v>1892864135.122196</v>
       </c>
       <c r="F32" t="n">
-        <v>0.107115293875804</v>
+        <v>0.1147255766989786</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03513217214926596</v>
+        <v>0.03806943225649133</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2614089958.267581</v>
+        <v>3102389534.04538</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1727440955346722</v>
+        <v>0.1562124602187684</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04693722168269009</v>
+        <v>0.05821392446036953</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1085798583.330004</v>
+        <v>1370273789.02564</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1136731133045098</v>
+        <v>0.1198772198228579</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01958773019560976</v>
+        <v>0.02260281992429973</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1236514994.914471</v>
+        <v>1217457281.353541</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1014243035409135</v>
+        <v>0.1171651281048253</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04461811240277443</v>
+        <v>0.03061037110326064</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2498562553.62113</v>
+        <v>2164547782.787096</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1278835424382675</v>
+        <v>0.1423625134217091</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02815487132529629</v>
+        <v>0.02228816701215482</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2504131529.890361</v>
+        <v>1819076007.898824</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08191668807562986</v>
+        <v>0.08978609533630028</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03070832475272186</v>
+        <v>0.0260602514393613</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1471304205.210818</v>
+        <v>1503007894.438538</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1159673071171239</v>
+        <v>0.1189066102709622</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03184124067957633</v>
+        <v>0.02671856647219808</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1355793877.624202</v>
+        <v>2048798216.860608</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1600257150281509</v>
+        <v>0.1282721232240112</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02339168029448858</v>
+        <v>0.02904969246935743</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1470485527.514654</v>
+        <v>1585489864.303327</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1345146484925567</v>
+        <v>0.101232725468925</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04399007855486717</v>
+        <v>0.03678018313036917</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2694993874.208713</v>
+        <v>2204784856.544012</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1167022340505111</v>
+        <v>0.1371226803231955</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03067425610625734</v>
+        <v>0.04742173020507751</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3946686568.766759</v>
+        <v>3602944263.976326</v>
       </c>
       <c r="F42" t="n">
-        <v>0.107668358852153</v>
+        <v>0.09959835767206909</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03705570636277361</v>
+        <v>0.04484980526024066</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2694062113.910239</v>
+        <v>1915989285.564688</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1897059407105597</v>
+        <v>0.134659579036312</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01908215998810734</v>
+        <v>0.02490658241577439</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1786453453.419881</v>
+        <v>2344956110.059151</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07332193098132106</v>
+        <v>0.09265981833529903</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03163387972035043</v>
+        <v>0.02381168348016849</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2465228151.326311</v>
+        <v>2383377881.836473</v>
       </c>
       <c r="F45" t="n">
-        <v>0.148281214862653</v>
+        <v>0.1861002966078157</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04532546857957997</v>
+        <v>0.05430053879098092</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5169731370.394045</v>
+        <v>4839952834.198134</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1777659954865365</v>
+        <v>0.1744253901390485</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04987520759075875</v>
+        <v>0.05452397172754814</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3899046407.254647</v>
+        <v>3995203770.350331</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1345843306359021</v>
+        <v>0.2037616927718829</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03821271907492458</v>
+        <v>0.04113221981691394</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3202954818.39926</v>
+        <v>4279127730.353142</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08665640220078812</v>
+        <v>0.1047908944880102</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03636624181819809</v>
+        <v>0.03628102217688135</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1718690297.422693</v>
+        <v>1930728540.614768</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1881060704343626</v>
+        <v>0.1279824879334331</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03521710569195376</v>
+        <v>0.03596722675895308</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2947699344.415468</v>
+        <v>2733895449.252784</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1331677401284537</v>
+        <v>0.1583629020828264</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03853925830491461</v>
+        <v>0.04675714457130047</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1337054610.25248</v>
+        <v>1007246518.815727</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1228010269625374</v>
+        <v>0.1930713523753508</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05094190108157053</v>
+        <v>0.05405320201437116</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4119505302.287456</v>
+        <v>4967274688.314075</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09039050846233088</v>
+        <v>0.08468907873643661</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05402181601411785</v>
+        <v>0.05197868821432927</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3580377435.14072</v>
+        <v>2456965340.523432</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1252039097976259</v>
+        <v>0.1327703658600986</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03309698402750859</v>
+        <v>0.03523642687247162</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4401346035.248734</v>
+        <v>3058018818.305924</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1671497590326933</v>
+        <v>0.1321920519076861</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04353500935753183</v>
+        <v>0.04518176364944388</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3922906329.449066</v>
+        <v>3184009769.469819</v>
       </c>
       <c r="F55" t="n">
-        <v>0.139544430530313</v>
+        <v>0.1534461327815061</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02201977121248716</v>
+        <v>0.02765694880918137</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1181225643.342162</v>
+        <v>1853060646.933948</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1415998589601216</v>
+        <v>0.1521520668425791</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04467325005307895</v>
+        <v>0.04338765272286445</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2965723255.688934</v>
+        <v>4234052612.659131</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1743343443568021</v>
+        <v>0.1269704895059739</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02252592822320154</v>
+        <v>0.01699005055966526</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1912633028.585426</v>
+        <v>1486276316.493006</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1902186904171262</v>
+        <v>0.1473340267210555</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02504638046153728</v>
+        <v>0.03851064095865432</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3711481013.21753</v>
+        <v>3592032854.043107</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09317995567521155</v>
+        <v>0.09428030674004373</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03169511124674531</v>
+        <v>0.03127978028673817</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2375860429.736403</v>
+        <v>3074674995.859202</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1501677611612765</v>
+        <v>0.1667571491828579</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03082082897910486</v>
+        <v>0.02073078463395223</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3169483793.835397</v>
+        <v>2340131347.694307</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1086193069640647</v>
+        <v>0.1295124798526524</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02629940848876721</v>
+        <v>0.02961207395285392</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1752044865.261132</v>
+        <v>1797009313.112248</v>
       </c>
       <c r="F62" t="n">
-        <v>0.148072437594361</v>
+        <v>0.1916624529666806</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03476742846980301</v>
+        <v>0.04374961453219069</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4820821868.433852</v>
+        <v>3527094074.687699</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09590745940280503</v>
+        <v>0.09648397341392864</v>
       </c>
       <c r="G63" t="n">
-        <v>0.031951809046405</v>
+        <v>0.04743167868806575</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3691873481.236451</v>
+        <v>5239081851.348347</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1825971435539442</v>
+        <v>0.1545463367813734</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03318197391695194</v>
+        <v>0.03439043370737339</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5583379413.756564</v>
+        <v>5186976099.78336</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1686829869081917</v>
+        <v>0.1066938513645176</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0303612251216888</v>
+        <v>0.02242738356970011</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4953698852.714846</v>
+        <v>3656976896.519739</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1557068465590888</v>
+        <v>0.1386773675297014</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03496564507117534</v>
+        <v>0.05001020232518176</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3135608072.176836</v>
+        <v>3380103387.305932</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06900328632044823</v>
+        <v>0.08168252006054658</v>
       </c>
       <c r="G67" t="n">
-        <v>0.032180276148166</v>
+        <v>0.05131856355107878</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4415363934.206946</v>
+        <v>4373011950.2424</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1584984427164594</v>
+        <v>0.12348569608429</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03467483269737216</v>
+        <v>0.03741595591001416</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2166277754.275128</v>
+        <v>2190692889.87993</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1231889922444612</v>
+        <v>0.1746142443829685</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05138668559726075</v>
+        <v>0.0437833394252708</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3159216361.123052</v>
+        <v>3192583180.059304</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07101393263142777</v>
+        <v>0.07196544124724058</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0380207758441346</v>
+        <v>0.03325109468884868</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3896204085.807507</v>
+        <v>3630069995.298203</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1134598618374675</v>
+        <v>0.1532659197847633</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02901194619120152</v>
+        <v>0.02646223857982413</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1615947734.146505</v>
+        <v>1444081868.936856</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08473117293346821</v>
+        <v>0.09614603365256892</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04904424497024006</v>
+        <v>0.03364174169465079</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2315368516.804803</v>
+        <v>2539365350.79764</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09574750849395482</v>
+        <v>0.07389223904462669</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03337605522290785</v>
+        <v>0.04886120324322483</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2513354116.365225</v>
+        <v>3925380263.113724</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1605024012271635</v>
+        <v>0.1200066039210066</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0216168209538324</v>
+        <v>0.02892119168327617</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1977018924.212999</v>
+        <v>1943169798.425445</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1372486060301572</v>
+        <v>0.103125287127651</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03187894623442943</v>
+        <v>0.03275446675630348</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3975414155.554164</v>
+        <v>5242963328.794001</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1167821332026254</v>
+        <v>0.08138155948877319</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03402777159041778</v>
+        <v>0.0335423802724785</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2066190806.446113</v>
+        <v>1787030441.625068</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1184897770486153</v>
+        <v>0.1341863854671093</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02991104033833203</v>
+        <v>0.02196780178260929</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3677070142.214124</v>
+        <v>4297449876.242308</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1200007321974456</v>
+        <v>0.1123333704803088</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05301566565784554</v>
+        <v>0.04057721768651078</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1384734081.454528</v>
+        <v>1198755784.70829</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1579884408581834</v>
+        <v>0.1228590692220474</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0294151824390367</v>
+        <v>0.02459728208390826</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5624409747.819122</v>
+        <v>3670450534.793692</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1008415978348682</v>
+        <v>0.1086696124851617</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03171405633282817</v>
+        <v>0.02908127836993614</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5084471172.666298</v>
+        <v>5185932145.248996</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1167076074166626</v>
+        <v>0.1124003780694029</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02276915931508182</v>
+        <v>0.02073213572332099</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4406197873.205529</v>
+        <v>4503976206.271537</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1523201081691117</v>
+        <v>0.1595016517688201</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02273350125592866</v>
+        <v>0.02625724101880111</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1645945871.559667</v>
+        <v>1998375459.601634</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1470841961880919</v>
+        <v>0.1374869197059901</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04304517469197837</v>
+        <v>0.02957875117454822</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2546070999.565034</v>
+        <v>2584481223.208165</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09162128948322742</v>
+        <v>0.07569612505163507</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03231514307327379</v>
+        <v>0.03929731842785323</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2646829899.889742</v>
+        <v>2519751322.524521</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1439258132988409</v>
+        <v>0.1344123578882856</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04963904817418136</v>
+        <v>0.0488616084012929</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2155669032.245145</v>
+        <v>2313087464.959347</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1121339572979559</v>
+        <v>0.1105560869898602</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02280512646329664</v>
+        <v>0.0245819721663356</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1419350843.002485</v>
+        <v>1235343769.468469</v>
       </c>
       <c r="F87" t="n">
-        <v>0.131467562651503</v>
+        <v>0.1526323559324834</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02726147375265889</v>
+        <v>0.04074685732335211</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3381464794.538907</v>
+        <v>2707183177.095105</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1385432468795331</v>
+        <v>0.1123644651283507</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02605665245580043</v>
+        <v>0.02432181006740531</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2607000852.49351</v>
+        <v>2340682154.997643</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1194924992030098</v>
+        <v>0.1272629809830844</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03629310081375062</v>
+        <v>0.02964251460055956</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1834466711.534534</v>
+        <v>1752180268.885051</v>
       </c>
       <c r="F90" t="n">
-        <v>0.113455615264341</v>
+        <v>0.11394472380373</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03673119501556824</v>
+        <v>0.03401437829926818</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1866061265.792788</v>
+        <v>1717430266.948127</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1703789387486922</v>
+        <v>0.1484189180529809</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05415019999588453</v>
+        <v>0.05548677627843458</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2230755378.686199</v>
+        <v>2927478206.400174</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1001652221933479</v>
+        <v>0.08710891626864979</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03543662180992105</v>
+        <v>0.03271898740630586</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3293077352.538625</v>
+        <v>4212244798.5441</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09998552502087331</v>
+        <v>0.09510942093200016</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05045148856934095</v>
+        <v>0.04468736832645947</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2195267531.330389</v>
+        <v>1966065555.741226</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1465799612002629</v>
+        <v>0.1173724245031214</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03631142899586057</v>
+        <v>0.03182850556165052</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2735411771.864349</v>
+        <v>3020666438.955342</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09357628716027128</v>
+        <v>0.1158815969521611</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0494562147212409</v>
+        <v>0.03246158067602967</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2314692549.119863</v>
+        <v>2173722324.611867</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1001589528278302</v>
+        <v>0.08519889509602271</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04066069374902506</v>
+        <v>0.04585954745717802</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3790746366.000819</v>
+        <v>3304722703.503876</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1481581107212599</v>
+        <v>0.10787732188075</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01770444481215543</v>
+        <v>0.01981576274016375</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3607367853.996624</v>
+        <v>3452320080.111129</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1188254026579105</v>
+        <v>0.1297620428143854</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03125219556043846</v>
+        <v>0.02382207231907862</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3062182776.333132</v>
+        <v>2329793073.464037</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1051087917716351</v>
+        <v>0.147452554514914</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02604171782929969</v>
+        <v>0.02724348263139593</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4348538362.109551</v>
+        <v>3066040395.402742</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1576406481249287</v>
+        <v>0.1599520683902389</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02505431115769143</v>
+        <v>0.02276953667038856</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3436794097.322606</v>
+        <v>3264453426.973899</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1606427882353448</v>
+        <v>0.1470925053649891</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05655437957529191</v>
+        <v>0.05580919740742085</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_340.xlsx
+++ b/output/fit_clients/fit_round_340.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1675237120.480696</v>
+        <v>2491308910.899573</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07248117324280978</v>
+        <v>0.09888964606454678</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03984943278510408</v>
+        <v>0.03622006839668915</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2345476826.995721</v>
+        <v>1673115397.626333</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1515664010610034</v>
+        <v>0.1706535378692327</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03558496914333487</v>
+        <v>0.03994697825756681</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3278506867.636659</v>
+        <v>5094852723.56843</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1289647131917851</v>
+        <v>0.1434436536275283</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03064564471365524</v>
+        <v>0.02798596595696148</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>176</v>
+      </c>
+      <c r="J4" t="n">
+        <v>340</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3963334736.324166</v>
+        <v>3531708396.225847</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1000752495389419</v>
+        <v>0.08838683886031173</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03930641553437923</v>
+        <v>0.05002975133503323</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>134</v>
+      </c>
+      <c r="J5" t="n">
+        <v>340</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2466200874.558227</v>
+        <v>1948822070.726978</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1124600517565923</v>
+        <v>0.09000761183702002</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04529207019948074</v>
+        <v>0.04027021276986296</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1954052672.13478</v>
+        <v>2740790945.378782</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08065487631004165</v>
+        <v>0.06493317939376025</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04613798201667607</v>
+        <v>0.04248098270049265</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3306516701.155874</v>
+        <v>3825079116.312557</v>
       </c>
       <c r="F8" t="n">
-        <v>0.166000920091264</v>
+        <v>0.1780809343547253</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03016226119211229</v>
+        <v>0.02045805520266042</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>340</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2258402968.68643</v>
+        <v>1742443054.356873</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1918612699512292</v>
+        <v>0.1453386863149322</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03440643104131123</v>
+        <v>0.03312688514561742</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +775,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4452152724.078892</v>
+        <v>4165060440.41498</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1589926721103277</v>
+        <v>0.1516540631641555</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0440578846727151</v>
+        <v>0.04277434319575483</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>290</v>
+      </c>
+      <c r="J10" t="n">
+        <v>340</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +810,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2675243612.454216</v>
+        <v>2920962400.865439</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1508687269731448</v>
+        <v>0.1725324999947092</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03117144738403625</v>
+        <v>0.04458296249731698</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>139</v>
+      </c>
+      <c r="J11" t="n">
+        <v>338</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +851,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2856489644.98307</v>
+        <v>3305577767.549706</v>
       </c>
       <c r="F12" t="n">
-        <v>0.180714282425424</v>
+        <v>0.1347183295175899</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04526996651997148</v>
+        <v>0.05002527022349497</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +886,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4273017987.866123</v>
+        <v>3336125613.984277</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1000813537520003</v>
+        <v>0.06647361870631709</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02487177399885103</v>
+        <v>0.02329267177110431</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>177</v>
+      </c>
+      <c r="J13" t="n">
+        <v>339</v>
+      </c>
+      <c r="K13" t="n">
+        <v>48.76136575623511</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +917,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3000266744.583393</v>
+        <v>3239537655.54431</v>
       </c>
       <c r="F14" t="n">
-        <v>0.126031506943387</v>
+        <v>0.15673944215791</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03426867175005503</v>
+        <v>0.0399619355174388</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>69</v>
+      </c>
+      <c r="J14" t="n">
+        <v>336</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1553141724.787583</v>
+        <v>1766707413.737725</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08722221977470926</v>
+        <v>0.09123493328592729</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03334260440649477</v>
+        <v>0.0478246521638452</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2060454038.948898</v>
+        <v>1766754628.755901</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08968119977773771</v>
+        <v>0.0831413887221089</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03744153132782924</v>
+        <v>0.03470170215431977</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1022,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5087977416.302608</v>
+        <v>4674756802.215311</v>
       </c>
       <c r="F17" t="n">
-        <v>0.131967338728825</v>
+        <v>0.111818789102686</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04654995101790842</v>
+        <v>0.04935432908985484</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>160</v>
+      </c>
+      <c r="J17" t="n">
+        <v>340</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1057,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2880677206.876569</v>
+        <v>2781447130.70277</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1498895474333195</v>
+        <v>0.1645004135832156</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02598060829365577</v>
+        <v>0.03378650933386527</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>83</v>
+      </c>
+      <c r="J18" t="n">
+        <v>336</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1098,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1020380825.254042</v>
+        <v>1353315691.70885</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1258607658550029</v>
+        <v>0.1865869378975848</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01706705537768216</v>
+        <v>0.02514673111686973</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1127,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1795719284.085522</v>
+        <v>2677883659.277641</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1465466719804925</v>
+        <v>0.1407443942351041</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03161499315409622</v>
+        <v>0.02037837680882404</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1162,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2238192921.6039</v>
+        <v>2506633150.581847</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1023591182080166</v>
+        <v>0.0844222746217195</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04064025738103152</v>
+        <v>0.0388570450924815</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1197,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3696884661.542823</v>
+        <v>2859636694.992859</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1409543337199085</v>
+        <v>0.08997847903757779</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05441182738588402</v>
+        <v>0.04959723052329306</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>93</v>
+      </c>
+      <c r="J22" t="n">
+        <v>338</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1238,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1451114605.133306</v>
+        <v>1486654746.472407</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1244924184250627</v>
+        <v>0.1807727039880801</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04566813295676356</v>
+        <v>0.05269914496792216</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1273,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2506703882.206118</v>
+        <v>3625871894.640263</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1475660483075</v>
+        <v>0.1231391476796707</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02872577711310539</v>
+        <v>0.03765092010030024</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>100</v>
+      </c>
+      <c r="J24" t="n">
+        <v>340</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1308,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1197679876.903372</v>
+        <v>954199600.6880935</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09816168559559511</v>
+        <v>0.08762363902667464</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02616647482780463</v>
+        <v>0.03082367992512221</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1337,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1344024955.290641</v>
+        <v>1430075983.653259</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07646666125328264</v>
+        <v>0.07642382658566417</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02421348720390279</v>
+        <v>0.03858573055779446</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1372,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2865813295.646553</v>
+        <v>2860738410.832197</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1429099934089899</v>
+        <v>0.1355885534223753</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0197542730878636</v>
+        <v>0.02243262462904463</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>142</v>
+      </c>
+      <c r="J27" t="n">
+        <v>338</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,16 +1413,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3547324372.30035</v>
+        <v>2961798187.443949</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1291664051274858</v>
+        <v>0.1292272425707673</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03995085104774517</v>
+        <v>0.03360508526251662</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>74</v>
+      </c>
+      <c r="J28" t="n">
+        <v>339</v>
+      </c>
+      <c r="K28" t="n">
+        <v>48.78408537734454</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1444,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5360198044.011731</v>
+        <v>4596781949.416477</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1140190303496575</v>
+        <v>0.126127985889729</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04216324397877338</v>
+        <v>0.03232762349093854</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>308</v>
+      </c>
+      <c r="J29" t="n">
+        <v>339</v>
+      </c>
+      <c r="K29" t="n">
+        <v>65.61927007966747</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1481,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1465240609.461498</v>
+        <v>1722870985.090107</v>
       </c>
       <c r="F30" t="n">
-        <v>0.125802879443935</v>
+        <v>0.1145607917105959</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03957191061690971</v>
+        <v>0.02814578527005287</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1522,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1181694955.986819</v>
+        <v>1445971187.886773</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08874167695916522</v>
+        <v>0.1018103425506204</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03926438755753194</v>
+        <v>0.04276073879073609</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1551,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1892864135.122196</v>
+        <v>1256505634.663729</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1147255766989786</v>
+        <v>0.08010535061567678</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03806943225649133</v>
+        <v>0.03377735894343441</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1586,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3102389534.04538</v>
+        <v>2823768702.543954</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1562124602187684</v>
+        <v>0.2049276063602106</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05821392446036953</v>
+        <v>0.04474223241865434</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1627,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1370273789.02564</v>
+        <v>1114965096.454851</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1198772198228579</v>
+        <v>0.1065444529157929</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02260281992429973</v>
+        <v>0.02305401660387157</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1656,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1217457281.353541</v>
+        <v>1234101085.625066</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1171651281048253</v>
+        <v>0.1083314001900896</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03061037110326064</v>
+        <v>0.03132511862270194</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1691,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2164547782.787096</v>
+        <v>2861009261.196536</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1423625134217091</v>
+        <v>0.1325611978022472</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02228816701215482</v>
+        <v>0.01947058407348527</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1726,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1819076007.898824</v>
+        <v>2774169393.222864</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08978609533630028</v>
+        <v>0.09884559607982182</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0260602514393613</v>
+        <v>0.03125641750512999</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1761,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1503007894.438538</v>
+        <v>1999684189.57291</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1189066102709622</v>
+        <v>0.09124666421256682</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02671856647219808</v>
+        <v>0.02567938484117009</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1796,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2048798216.860608</v>
+        <v>1379858482.631112</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1282721232240112</v>
+        <v>0.156457755463123</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02904969246935743</v>
+        <v>0.02314913818774976</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1831,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1585489864.303327</v>
+        <v>1558139716.584453</v>
       </c>
       <c r="F40" t="n">
-        <v>0.101232725468925</v>
+        <v>0.1140322161209413</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03678018313036917</v>
+        <v>0.03783109040099049</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1872,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2204784856.544012</v>
+        <v>2522191913.113246</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1371226803231955</v>
+        <v>0.106401115917923</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04742173020507751</v>
+        <v>0.04004938323318124</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1907,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3602944263.976326</v>
+        <v>3879979002.870125</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09959835767206909</v>
+        <v>0.1142214068779569</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04484980526024066</v>
+        <v>0.04352742746334595</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>147</v>
+      </c>
+      <c r="J42" t="n">
+        <v>340</v>
+      </c>
+      <c r="K42" t="n">
+        <v>71.95576599342495</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1915989285.564688</v>
+        <v>1888084877.671437</v>
       </c>
       <c r="F43" t="n">
-        <v>0.134659579036312</v>
+        <v>0.1720054064862157</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02490658241577439</v>
+        <v>0.02174089238441592</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2344956110.059151</v>
+        <v>1434159957.942027</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09265981833529903</v>
+        <v>0.06766620383134862</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02381168348016849</v>
+        <v>0.03709008931718893</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2014,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2383377881.836473</v>
+        <v>1617913870.193555</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1861002966078157</v>
+        <v>0.1299439908802369</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05430053879098092</v>
+        <v>0.0369877840880931</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2043,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4839952834.198134</v>
+        <v>4976329702.057192</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1744253901390485</v>
+        <v>0.1345729388802346</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05452397172754814</v>
+        <v>0.05133623610119501</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>204</v>
+      </c>
+      <c r="J46" t="n">
+        <v>339</v>
+      </c>
+      <c r="K46" t="n">
+        <v>68.44978057020053</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2086,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3995203770.350331</v>
+        <v>4384769682.354542</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2037616927718829</v>
+        <v>0.1905870390245856</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04113221981691394</v>
+        <v>0.04443479315169856</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>151</v>
+      </c>
+      <c r="J47" t="n">
+        <v>340</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2115,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4279127730.353142</v>
+        <v>3423868716.241056</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1047908944880102</v>
+        <v>0.06662417138935629</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03628102217688135</v>
+        <v>0.02771001718202087</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>168</v>
+      </c>
+      <c r="J48" t="n">
+        <v>337</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2150,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1930728540.614768</v>
+        <v>1804543384.460602</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1279824879334331</v>
+        <v>0.1389740483952921</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03596722675895308</v>
+        <v>0.02839012994222988</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2191,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2733895449.252784</v>
+        <v>3625818878.936417</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1583629020828264</v>
+        <v>0.1657849735915846</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04675714457130047</v>
+        <v>0.04992056716129528</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>112</v>
+      </c>
+      <c r="J50" t="n">
+        <v>339</v>
+      </c>
+      <c r="K50" t="n">
+        <v>64.17199612089654</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2228,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1007246518.815727</v>
+        <v>1159401211.82671</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1930713523753508</v>
+        <v>0.1713400272303818</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05405320201437116</v>
+        <v>0.04361932008686357</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2263,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4967274688.314075</v>
+        <v>5049651413.461774</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08468907873643661</v>
+        <v>0.1021910551645944</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05197868821432927</v>
+        <v>0.05591311072168568</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>204</v>
+      </c>
+      <c r="J52" t="n">
+        <v>339</v>
+      </c>
+      <c r="K52" t="n">
+        <v>66.84028052495381</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2456965340.523432</v>
+        <v>3570436683.548275</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1327703658600986</v>
+        <v>0.1859212620815059</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03523642687247162</v>
+        <v>0.02912970035448431</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>48</v>
+      </c>
+      <c r="J53" t="n">
+        <v>340</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2329,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3058018818.305924</v>
+        <v>4147820998.678813</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1321920519076861</v>
+        <v>0.1174524372531054</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04518176364944388</v>
+        <v>0.03723773145220023</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>179</v>
+      </c>
+      <c r="J54" t="n">
+        <v>340</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2364,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3184009769.469819</v>
+        <v>4600736861.303201</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1534461327815061</v>
+        <v>0.2037621484317416</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02765694880918137</v>
+        <v>0.02341655181080268</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>162</v>
+      </c>
+      <c r="J55" t="n">
+        <v>340</v>
+      </c>
+      <c r="K55" t="n">
+        <v>69.01049299498477</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1853060646.933948</v>
+        <v>1430571128.156393</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1521520668425791</v>
+        <v>0.1419182787193987</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04338765272286445</v>
+        <v>0.04044224879863571</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4234052612.659131</v>
+        <v>3842493420.895619</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1269704895059739</v>
+        <v>0.1207301882488471</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01699005055966526</v>
+        <v>0.02098106449538377</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>139</v>
+      </c>
+      <c r="J57" t="n">
+        <v>340</v>
+      </c>
+      <c r="K57" t="n">
+        <v>70.38052541015543</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1486276316.493006</v>
+        <v>1377880645.526289</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1473340267210555</v>
+        <v>0.1356592194165297</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03851064095865432</v>
+        <v>0.02589987391816881</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3592032854.043107</v>
+        <v>3950162660.889958</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09428030674004373</v>
+        <v>0.1046444930652255</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03127978028673817</v>
+        <v>0.04662995191269255</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>164</v>
+      </c>
+      <c r="J59" t="n">
+        <v>339</v>
+      </c>
+      <c r="K59" t="n">
+        <v>66.52497091841376</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3074674995.859202</v>
+        <v>3280763156.730361</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1667571491828579</v>
+        <v>0.1968644001755759</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02073078463395223</v>
+        <v>0.026942001608216</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>60</v>
+      </c>
+      <c r="J60" t="n">
+        <v>338</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2340131347.694307</v>
+        <v>2370335933.361145</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1295124798526524</v>
+        <v>0.1654574958252693</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02961207395285392</v>
+        <v>0.02058302272828838</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1797009313.112248</v>
+        <v>2060342644.685155</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1916624529666806</v>
+        <v>0.1889547966168474</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04374961453219069</v>
+        <v>0.03476225509158399</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3527094074.687699</v>
+        <v>4144327997.398187</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09648397341392864</v>
+        <v>0.1030289428781016</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04743167868806575</v>
+        <v>0.04081246024896271</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>166</v>
+      </c>
+      <c r="J63" t="n">
+        <v>340</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5239081851.348347</v>
+        <v>4728772882.041829</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1545463367813734</v>
+        <v>0.1861133561981378</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03439043370737339</v>
+        <v>0.02693394252658949</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>168</v>
+      </c>
+      <c r="J64" t="n">
+        <v>340</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,17 +2726,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5186976099.78336</v>
+        <v>3766442714.472996</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1066938513645176</v>
+        <v>0.1279335056906247</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02242738356970011</v>
+        <v>0.02123813713813036</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>263</v>
+      </c>
+      <c r="J65" t="n">
+        <v>340</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2755,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3656976896.519739</v>
+        <v>5647661708.719111</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1386773675297014</v>
+        <v>0.138051105092774</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05001020232518176</v>
+        <v>0.03106753989431985</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>168</v>
+      </c>
+      <c r="J66" t="n">
+        <v>339</v>
+      </c>
+      <c r="K66" t="n">
+        <v>62.18194411850583</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2792,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3380103387.305932</v>
+        <v>2973498565.614575</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08168252006054658</v>
+        <v>0.09084932452636676</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05131856355107878</v>
+        <v>0.04168144013785248</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2827,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4373011950.2424</v>
+        <v>5724817717.472609</v>
       </c>
       <c r="F68" t="n">
-        <v>0.12348569608429</v>
+        <v>0.1002315905220978</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03741595591001416</v>
+        <v>0.04003488810020472</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>185</v>
+      </c>
+      <c r="J68" t="n">
+        <v>339</v>
+      </c>
+      <c r="K68" t="n">
+        <v>68.00285697541803</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2190692889.87993</v>
+        <v>2166490538.169423</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1746142443829685</v>
+        <v>0.1247792350637207</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0437833394252708</v>
+        <v>0.04346000264048745</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3192583180.059304</v>
+        <v>2329309891.648529</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07196544124724058</v>
+        <v>0.1027998378134936</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03325109468884868</v>
+        <v>0.03930415906568312</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>50</v>
+      </c>
+      <c r="J70" t="n">
+        <v>332</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2934,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3630069995.298203</v>
+        <v>5344382539.760104</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1532659197847633</v>
+        <v>0.1702313199752404</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02646223857982413</v>
+        <v>0.0292181377090871</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>250</v>
+      </c>
+      <c r="J71" t="n">
+        <v>339</v>
+      </c>
+      <c r="K71" t="n">
+        <v>67.68204941083918</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1444081868.936856</v>
+        <v>1997994481.192414</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09614603365256892</v>
+        <v>0.09430388130883841</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03364174169465079</v>
+        <v>0.04036057987722153</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2539365350.79764</v>
+        <v>3079081575.042903</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07389223904462669</v>
+        <v>0.06907651463083526</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04886120324322483</v>
+        <v>0.03746432312481391</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3041,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3925380263.113724</v>
+        <v>3935902124.346156</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1200066039210066</v>
+        <v>0.1163126750288801</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02892119168327617</v>
+        <v>0.02709152306954214</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>91</v>
+      </c>
+      <c r="J74" t="n">
+        <v>340</v>
+      </c>
+      <c r="K74" t="n">
+        <v>82.38085307916353</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1943169798.425445</v>
+        <v>1980069413.267177</v>
       </c>
       <c r="F75" t="n">
-        <v>0.103125287127651</v>
+        <v>0.1113001884157217</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03275446675630348</v>
+        <v>0.03084084860655869</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5242963328.794001</v>
+        <v>4900537678.744992</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08138155948877319</v>
+        <v>0.1170976664449514</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0335423802724785</v>
+        <v>0.03355765798788123</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>160</v>
+      </c>
+      <c r="J76" t="n">
+        <v>340</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1787030441.625068</v>
+        <v>1803426720.81777</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1341863854671093</v>
+        <v>0.1806333738883587</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02196780178260929</v>
+        <v>0.02645831757505124</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4297449876.242308</v>
+        <v>4383202697.740747</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1123333704803088</v>
+        <v>0.1168190012055802</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04057721768651078</v>
+        <v>0.03898624307660722</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>168</v>
+      </c>
+      <c r="J78" t="n">
+        <v>340</v>
+      </c>
+      <c r="K78" t="n">
+        <v>69.46421117532081</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1198755784.70829</v>
+        <v>1193547549.431568</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1228590692220474</v>
+        <v>0.1412507466108887</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02459728208390826</v>
+        <v>0.02579282275968072</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3670450534.793692</v>
+        <v>3782805726.954679</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1086696124851617</v>
+        <v>0.06907379958997818</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02908127836993614</v>
+        <v>0.03634173152304458</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>166</v>
+      </c>
+      <c r="J80" t="n">
+        <v>340</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3296,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5185932145.248996</v>
+        <v>3659585842.840801</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1124003780694029</v>
+        <v>0.136065355837288</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02073213572332099</v>
+        <v>0.02494791681259685</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>157</v>
+      </c>
+      <c r="J81" t="n">
+        <v>339</v>
+      </c>
+      <c r="K81" t="n">
+        <v>55.05012501933744</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3333,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4503976206.271537</v>
+        <v>4650478086.874925</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1595016517688201</v>
+        <v>0.1786671749009255</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02625724101880111</v>
+        <v>0.02191134822261499</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>243</v>
+      </c>
+      <c r="J82" t="n">
+        <v>339</v>
+      </c>
+      <c r="K82" t="n">
+        <v>65.73246489129491</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1998375459.601634</v>
+        <v>2315179364.681463</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1374869197059901</v>
+        <v>0.1496114029772493</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02957875117454822</v>
+        <v>0.04532654260464093</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2584481223.208165</v>
+        <v>1566042017.519414</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07569612505163507</v>
+        <v>0.08796761172873296</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03929731842785323</v>
+        <v>0.03246890795353683</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2519751322.524521</v>
+        <v>3041407294.98859</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1344123578882856</v>
+        <v>0.1614019175413686</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0488616084012929</v>
+        <v>0.04999390029678107</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>44</v>
+      </c>
+      <c r="J85" t="n">
+        <v>332</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2313087464.959347</v>
+        <v>1713705809.728544</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1105560869898602</v>
+        <v>0.1622504832850254</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0245819721663356</v>
+        <v>0.02310789017912654</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1235343769.468469</v>
+        <v>1415104370.705631</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1526323559324834</v>
+        <v>0.1366433489162831</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04074685732335211</v>
+        <v>0.04219269245462134</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2707183177.095105</v>
+        <v>2366458943.572626</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1123644651283507</v>
+        <v>0.1642937703371071</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02432181006740531</v>
+        <v>0.03630045725228365</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2340682154.997643</v>
+        <v>2991308465.235744</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1272629809830844</v>
+        <v>0.1181523120412106</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02964251460055956</v>
+        <v>0.03875057230883654</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1752180268.885051</v>
+        <v>1450336890.385529</v>
       </c>
       <c r="F90" t="n">
-        <v>0.11394472380373</v>
+        <v>0.1066634520042214</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03401437829926818</v>
+        <v>0.03628508016215529</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1717430266.948127</v>
+        <v>1601959789.477241</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1484189180529809</v>
+        <v>0.1501783042799643</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05548677627843458</v>
+        <v>0.03937810377720039</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2927478206.400174</v>
+        <v>2244567596.719141</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08710891626864979</v>
+        <v>0.09405973616646268</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03271898740630586</v>
+        <v>0.03272574355034406</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4212244798.5441</v>
+        <v>3163755549.041239</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09510942093200016</v>
+        <v>0.1253373255580147</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04468736832645947</v>
+        <v>0.04227724686737825</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>156</v>
+      </c>
+      <c r="J93" t="n">
+        <v>339</v>
+      </c>
+      <c r="K93" t="n">
+        <v>44.73752291396767</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1966065555.741226</v>
+        <v>1964847981.896172</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1173724245031214</v>
+        <v>0.1663515767161439</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03182850556165052</v>
+        <v>0.03432741697462137</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3020666438.955342</v>
+        <v>2590206130.617196</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1158815969521611</v>
+        <v>0.09863257692702261</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03246158067602967</v>
+        <v>0.04770546371470567</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2173722324.611867</v>
+        <v>2354674008.052409</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08519889509602271</v>
+        <v>0.1259907534922659</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04585954745717802</v>
+        <v>0.04350749937425259</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3304722703.503876</v>
+        <v>3571940571.283447</v>
       </c>
       <c r="F97" t="n">
-        <v>0.10787732188075</v>
+        <v>0.1202794435939497</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01981576274016375</v>
+        <v>0.02267010887296892</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>175</v>
+      </c>
+      <c r="J97" t="n">
+        <v>339</v>
+      </c>
+      <c r="K97" t="n">
+        <v>56.60989843614018</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3452320080.111129</v>
+        <v>3653988262.851462</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1297620428143854</v>
+        <v>0.08719501769011065</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02382207231907862</v>
+        <v>0.02340683533542636</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>85</v>
+      </c>
+      <c r="J98" t="n">
+        <v>340</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2329793073.464037</v>
+        <v>3025258195.369304</v>
       </c>
       <c r="F99" t="n">
-        <v>0.147452554514914</v>
+        <v>0.1465944223328449</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02724348263139593</v>
+        <v>0.02994402041824215</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3066040395.402742</v>
+        <v>4534975686.251453</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1599520683902389</v>
+        <v>0.1514704931889624</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02276953667038856</v>
+        <v>0.02536494331705206</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>153</v>
+      </c>
+      <c r="J100" t="n">
+        <v>339</v>
+      </c>
+      <c r="K100" t="n">
+        <v>68.20068799886614</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3264453426.973899</v>
+        <v>2306880330.928376</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1470925053649891</v>
+        <v>0.1724890684877445</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05580919740742085</v>
+        <v>0.04870757687388435</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>31</v>
+      </c>
+      <c r="J101" t="n">
+        <v>331</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
